--- a/venv/HomeWork/python_Excel/test.xlsx
+++ b/venv/HomeWork/python_Excel/test.xlsx
@@ -1,96 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="570" windowWidth="27735" windowHeight="11700"/>
+    <workbookView activeTab="0" windowHeight="11700" windowWidth="27735" xWindow="600" yWindow="570"/>
   </bookViews>
   <sheets>
-    <sheet name="caseData" sheetId="1" r:id="rId1"/>
-    <sheet name="initData" sheetId="2" r:id="rId2"/>
+    <sheet name="caseData" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="initData" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>/api/init</t>
+  </si>
+  <si>
+    <t>{"mobile": ${init}, "pwd": "123456"}</t>
+  </si>
+  <si>
+    <t>/api/registe</t>
+  </si>
+  <si>
+    <t>{"mobile": ${registe}, "pwd": "123456"}</t>
+  </si>
+  <si>
+    <t>/api/login</t>
+  </si>
+  <si>
+    <t>{"mobile": ${login}, "pwd": "123456"}</t>
+  </si>
+  <si>
+    <t>${init}</t>
+  </si>
   <si>
     <t>${registe}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${login}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${init}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>params</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobile": ${init}, "pwd": "123456"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobile": ${registe}, "pwd": "123456"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/init</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/registe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobile": ${login}, "pwd": "123456"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -106,22 +96,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -409,93 +398,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.25" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="18.625"/>
+    <col customWidth="1" max="2" min="2" style="1" width="58.25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row customFormat="1" r="3" s="2" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1">
-      <c r="A2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customFormat="1" r="4" s="2" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="2" customFormat="1">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="2" customFormat="1">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup copies="0" horizontalDpi="200" orientation="portrait" paperSize="9" verticalDpi="200"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="15.75"/>
+    <col customWidth="1" max="2" min="2" width="21.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1">
-        <v>13700000000</v>
+        <v>8</v>
+      </c>
+      <c r="B1" t="n">
+        <v>13700000003</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" horizontalDpi="200" orientation="portrait" paperSize="9" verticalDpi="200"/>
 </worksheet>
 </file>